--- a/00.Document/06.일정관리/180503일정달력_임주영v0.4.xlsx
+++ b/00.Document/06.일정관리/180503일정달력_임주영v0.4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Documents\3DProject\00.Document\06.일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,8 +158,8 @@
         <b/>
         <sz val="11"/>
         <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>(챕터2 마일스톤)</t>
@@ -169,8 +169,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
@@ -181,8 +181,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>QA
@@ -200,8 +200,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>팀전체 회의
@@ -216,8 +216,8 @@
         <u/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>킥오프</t>
@@ -228,8 +228,8 @@
         <u/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
@@ -240,8 +240,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="a드림고딕2"/>
-        <family val="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">챕1 구현 
@@ -263,7 +263,7 @@
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="d"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -410,41 +410,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="35"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="35"/>
-      <color theme="4"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.24994659260841701"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="a드림고딕2"/>
@@ -452,27 +417,69 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="35"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="35"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.24994659260841701"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -480,8 +487,8 @@
       <u/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -489,24 +496,24 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="a드림고딕2"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -759,7 +766,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -846,148 +853,151 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="12" applyFont="1">
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="8" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="8" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="15" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="15" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="13" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="13" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="15" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="15" borderId="0" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="27" fillId="15" borderId="0" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="7" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="27" fillId="7" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="9" borderId="0" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="27" fillId="9" borderId="0" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="13" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="27" fillId="13" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="9" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="9" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="29" fillId="7" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="7" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="7" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="7" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="11" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1366,15 +1376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1045028</xdr:colOff>
+      <xdr:colOff>1088570</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>674914</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1338943</xdr:colOff>
+      <xdr:colOff>1850571</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>674914</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1389,8 +1399,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6346371" y="2906485"/>
-          <a:ext cx="1774372" cy="0"/>
+          <a:off x="6389913" y="2917371"/>
+          <a:ext cx="2242458" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2181,22 +2191,22 @@
         <f ca="1"/>
         <v>43136</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="57.9" customHeight="1">
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2490,22 +2500,22 @@
         <f ca="1"/>
         <v>43437</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2784,22 +2794,22 @@
         <f ca="1"/>
         <v>43465</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3087,22 +3097,22 @@
         <f ca="1"/>
         <v>43164</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3382,22 +3392,22 @@
         <f ca="1"/>
         <v>43192</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3444,7 +3454,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.4"/>
@@ -3463,310 +3473,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="59.25" customHeight="1">
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="35" t="str">
         <f ca="1">"5월 "&amp;달력연도</f>
         <v>5월 2018</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="39" t="str">
         <f>IF(주시작="일요일", "일요일","월요일")</f>
         <v>일요일</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="39" t="str">
         <f t="shared" ref="C2:H2" ca="1" si="0">UPPER(TEXT(C3,"aaaa"))</f>
         <v>월요일</v>
       </c>
-      <c r="D2" s="34" t="str">
+      <c r="D2" s="39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>화요일</v>
       </c>
-      <c r="E2" s="34" t="str">
+      <c r="E2" s="39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>수요일</v>
       </c>
-      <c r="F2" s="34" t="str">
+      <c r="F2" s="39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>목요일</v>
       </c>
-      <c r="G2" s="34" t="str">
+      <c r="G2" s="39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>금요일</v>
       </c>
-      <c r="H2" s="34" t="str">
+      <c r="H2" s="39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>토요일</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B3" s="35">
+      <c r="B3" s="40">
         <f t="array" aca="1" ref="B3:H3" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+1</f>
         <v>43219</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="40">
         <f ca="1"/>
         <v>43220</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="41">
         <f ca="1"/>
         <v>43221</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="41">
         <f ca="1"/>
         <v>43222</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="40">
         <f ca="1"/>
         <v>43223</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="40">
         <f ca="1"/>
         <v>43224</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="40">
         <f ca="1"/>
         <v>43225</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="57.9" customHeight="1" thickBot="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B5" s="41">
+      <c r="B5" s="46">
         <f t="array" aca="1" ref="B5:H5" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+8</f>
         <v>43226</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="46">
         <f ca="1"/>
         <v>43227</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="47">
         <f ca="1"/>
         <v>43228</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="48">
         <f ca="1"/>
         <v>43229</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="49">
         <f ca="1"/>
         <v>43230</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="50">
         <f ca="1"/>
         <v>43231</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="51">
         <f ca="1"/>
         <v>43232</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="75.599999999999994" thickBot="1">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:8" ht="87.6" thickBot="1">
+      <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B7" s="54">
+      <c r="B7" s="59">
         <f t="array" aca="1" ref="B7:H7" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+15</f>
         <v>43233</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="60">
         <f ca="1"/>
         <v>43234</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="61">
         <f ca="1"/>
         <v>43235</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="61">
         <f ca="1"/>
         <v>43236</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="62">
         <f ca="1"/>
         <v>43237</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="61">
         <f ca="1"/>
         <v>43238</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="61">
         <f ca="1"/>
         <v>43239</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="71.400000000000006" customHeight="1" thickBot="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B9" s="63">
+      <c r="B9" s="68">
         <f t="array" aca="1" ref="B9:H9" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+22</f>
         <v>43240</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="69">
         <f ca="1"/>
         <v>43241</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="70">
         <f ca="1"/>
         <v>43242</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="46">
         <f ca="1"/>
         <v>43243</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="71">
         <f ca="1"/>
         <v>43244</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="46">
         <f ca="1"/>
         <v>43245</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="46">
         <f ca="1"/>
         <v>43246</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="57.9" customHeight="1" thickBot="1">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B11" s="35">
+      <c r="B11" s="40">
         <f t="array" aca="1" ref="B11:H11" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+29</f>
         <v>43247</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="40">
         <f ca="1"/>
         <v>43248</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="40">
         <f ca="1"/>
         <v>43249</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="40">
         <f ca="1"/>
         <v>43250</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="40">
         <f ca="1"/>
         <v>43251</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="40">
         <f ca="1"/>
         <v>43252</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="40">
         <f ca="1"/>
         <v>43253</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="57.9" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B13" s="41">
+      <c r="B13" s="46">
         <f t="array" aca="1" ref="B13:C13" ca="1">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="Monday")+1)+36</f>
         <v>43254</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="46">
         <f ca="1"/>
         <v>43255</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="2:8" ht="15">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4047,22 +4057,22 @@
         <f ca="1"/>
         <v>43283</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4342,22 +4352,22 @@
         <f ca="1"/>
         <v>43318</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4637,22 +4647,22 @@
         <f ca="1"/>
         <v>43346</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4932,22 +4942,22 @@
         <f ca="1"/>
         <v>43374</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5226,22 +5236,22 @@
         <f ca="1"/>
         <v>43409</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="57.9" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
